--- a/data/DLD API Integration Service FAQs.xlsx
+++ b/data/DLD API Integration Service FAQs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERES\FAQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamad.al\OneDrive - AL KHAYYAT INVESTMENTS\Desktop\DLD_Proke\S\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A91B436-A8F5-4FB6-A9F4-47E81900A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="10464"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,33 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>DLD API Integration Service FAQs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Dubai Land Department (DLD) API Integration Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> provides seamless connectivity to DLD's digital platforms, enabling businesses to access and use real estate data efficiently. Through this service, organizations can automate property-related operations, verify ownership details, and manage transactions directly within their systems. Key features include real-time data access, secure authentication protocols, and support for various real estate processes such as tenancy contract validation, title deed verification, and Ejari services. The integration aims to enhance user experience, improve operational efficiency, and promote transparency in Dubai’s real estate sector.</t>
-    </r>
   </si>
   <si>
     <t>#</t>
@@ -293,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,22 +455,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,842 +753,837 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="140" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>6</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>16</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="6" t="s">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>18</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>18</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="9" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>20</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>21</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="9" t="s">
-        <v>47</v>
+      <c r="D31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>21</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="8" t="s">
+    <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6" t="s">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>22</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>55</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
-        <v>22</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="13" t="s">
+    <row r="37" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="8" t="s">
-        <v>55</v>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+    <row r="41" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
+        <v>23</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
+        <v>24</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
-        <v>27</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
-        <v>28</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="6" t="s">
+    <row r="47" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A47" s="12">
+        <v>29</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
-        <v>29</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="13" t="s">
+      <c r="D47" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="8" t="s">
         <v>74</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+    <row r="52" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
+        <v>30</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
+        <v>31</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
-        <v>30</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
-        <v>31</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" location="/" display="https://dubailand.gov.ae/en/contact-us/raise-a-support-request/ - /"/>
-    <hyperlink ref="D28" r:id="rId2" location="/" display="https://dubailand.gov.ae/en/contact-us/raise-a-support-request/ - /"/>
-    <hyperlink ref="D32" r:id="rId3" location="/" display="https://dubailand.gov.ae/en/contact-us/raise-a-support-request/ - /"/>
-    <hyperlink ref="D35" r:id="rId4" location="/mydld/dashboard" display="https://dubailand.gov.ae/en/MyDLD/ - /mydld/dashboard"/>
-    <hyperlink ref="D39" r:id="rId5" location="/mydld/dashboard" display="https://dubailand.gov.ae/en/MyDLD/ - /mydld/dashboard"/>
+    <hyperlink ref="D18" r:id="rId1" location="/" display="https://dubailand.gov.ae/en/contact-us/raise-a-support-request/ - /" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D26" r:id="rId2" location="/" display="https://dubailand.gov.ae/en/contact-us/raise-a-support-request/ - /" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D30" r:id="rId3" location="/" display="https://dubailand.gov.ae/en/contact-us/raise-a-support-request/ - /" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D33" r:id="rId4" location="/mydld/dashboard" display="https://dubailand.gov.ae/en/MyDLD/ - /mydld/dashboard" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D37" r:id="rId5" location="/mydld/dashboard" display="https://dubailand.gov.ae/en/MyDLD/ - /mydld/dashboard" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
